--- a/opset_20/NVIDIA - CUDA/report_CUDAExecutionProvider.xlsx
+++ b/opset_20/NVIDIA - CUDA/report_CUDAExecutionProvider.xlsx
@@ -6462,7 +6462,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-08-29 10:46:10</t>
+          <t>2025-11-18 14:38:52</t>
         </is>
       </c>
     </row>

--- a/opset_20/NVIDIA - CUDA/report_CUDAExecutionProvider.xlsx
+++ b/opset_20/NVIDIA - CUDA/report_CUDAExecutionProvider.xlsx
@@ -6462,7 +6462,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-11-18 14:38:52</t>
+          <t>2025-11-18 14:51:59</t>
         </is>
       </c>
     </row>
